--- a/_Lang_Korean/Lang/KR/Dialog/Drama/_main.xlsx
+++ b/_Lang_Korean/Lang/KR/Dialog/Drama/_main.xlsx
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">その風はイルヴァが長年待ち望んでいたエーテルの風の先触れ。「凪の季節」は終わり、星の浄化が今再び始まろうとしているのです。</t>
   </si>
   <si>
-    <t xml:space="preserve">The wind is the harbinger of the Etherwind that Ylva has long awaited. The "Period of Calm" is over, and the purification of the plant is about to begin once again.</t>
+    <t xml:space="preserve">The wind is the harbinger of the Etherwind that Ylva has long awaited. The "Period of Calm" is over, and the purification of the planet is about to begin once again.</t>
   </si>
   <si>
     <t xml:space="preserve">星の浄化…待って、あなたは何を伝えようとしているの？
@@ -1269,7 +1269,7 @@
   </si>
   <si>
     <t xml:space="preserve">...I don't know the answer.
-I wish i could relieve you with pretty words, but I gave up on people and on myself a long time ago. I will not hope for the world, nor will I be disappointed in it. I just plan to stay by Master Cetrus to the end, no matter what.
+I wish I could relieve you with pretty words, but I gave up on people and on myself a long time ago. I will not hope for the world, nor will I be disappointed in it. I just plan to stay by Master Cetrus to the end, no matter what.
 There's a good solution though, to change the world into your liking.</t>
   </si>
   <si>
@@ -3037,9 +3037,9 @@
   <dimension ref="A1:IW491"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K481" sqref="K481"/>
-      <selection pane="bottomLeft" activeCell="I154" sqref="I154"/>
+      <selection pane="bottomLeft" activeCell="J302" sqref="J302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -27690,9 +27690,9 @@
   <dimension ref="A1:IV160"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K122" sqref="K122"/>
-      <selection pane="bottomLeft" activeCell="L115" sqref="L115"/>
+      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
